--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-practitionerrole-smartcard.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-practitionerrole-smartcard.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="178">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -320,6 +320,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.extension:type</t>
   </si>
   <si>
@@ -369,9 +372,6 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -388,11 +388,10 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J128-TypeCarte-RASS/FHIR/JDV-J128-TypeCarte-RASS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -402,18 +401,6 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:type.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J128-TypeCarte-RASS/FHIR/JDV-J128-TypeCarte-RASS</t>
-  </si>
-  <si>
     <t>Extension.extension:number</t>
   </si>
   <si>
@@ -463,25 +450,19 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod</t>
-  </si>
-  <si>
-    <t>valuePeriod</t>
-  </si>
-  <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.id</t>
+    <t>Extension.extension:period.value[x].id</t>
   </si>
   <si>
     <t>Extension.extension.value[x].id</t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.extension</t>
+    <t>Extension.extension:period.value[x].extension</t>
   </si>
   <si>
     <t>Extension.extension.value[x].extension</t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.start</t>
+    <t>Extension.extension:period.value[x].start</t>
   </si>
   <si>
     <t>Extension.extension.value[x].start</t>
@@ -506,14 +487,14 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">per-1
-</t>
+    <t>ele-1
+per-1</t>
   </si>
   <si>
     <t>./low</t>
   </si>
   <si>
-    <t>Extension.extension:period.value[x]:valuePeriod.end</t>
+    <t>Extension.extension:period.value[x].end</t>
   </si>
   <si>
     <t>Extension.extension.value[x].end</t>
@@ -886,7 +867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -895,42 +876,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.0234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.5078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.5" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1350,24 +1331,24 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>74</v>
@@ -1392,13 +1373,13 @@
         <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1457,7 +1438,7 @@
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>98</v>
@@ -1468,10 +1449,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1571,10 +1552,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1603,7 +1584,7 @@
         <v>28</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1663,7 +1644,7 @@
         <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>98</v>
@@ -1674,10 +1655,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1700,16 +1681,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1717,7 +1698,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>74</v>
@@ -1759,7 +1740,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -1774,7 +1755,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1838,26 +1819,26 @@
         <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>123</v>
@@ -1869,13 +1850,13 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1883,7 +1864,7 @@
         <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>126</v>
@@ -1908,15 +1889,17 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -1941,11 +1924,13 @@
         <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y10" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z10" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>74</v>
@@ -1963,22 +1948,22 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -1986,11 +1971,9 @@
         <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2011,17 +1994,15 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2070,30 +2051,30 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2104,7 +2085,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2116,13 +2097,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2161,42 +2142,42 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2204,10 +2185,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2219,22 +2200,24 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>74</v>
@@ -2264,42 +2247,42 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2307,7 +2290,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>82</v>
@@ -2322,24 +2305,22 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>74</v>
@@ -2381,32 +2362,34 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>74</v>
       </c>
@@ -2427,13 +2410,13 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2484,34 +2467,32 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>74</v>
       </c>
@@ -2532,13 +2513,13 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2589,30 +2570,30 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2623,7 +2604,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -2635,13 +2616,13 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2680,42 +2661,42 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2723,10 +2704,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -2738,22 +2719,24 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>74</v>
@@ -2783,42 +2766,42 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2826,7 +2809,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>82</v>
@@ -2841,24 +2824,22 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>74</v>
@@ -2900,30 +2881,30 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2946,13 +2927,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2991,17 +2972,19 @@
         <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3013,31 +2996,29 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3049,15 +3030,17 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3094,42 +3077,42 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3149,18 +3132,20 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -3209,7 +3194,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3218,32 +3203,32 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -3252,25 +3237,27 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="R23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3302,44 +3289,46 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>87</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3357,19 +3346,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3419,30 +3408,30 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3462,27 +3451,23 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q25" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
         <v>74</v>
       </c>
@@ -3526,7 +3511,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -3535,25 +3520,23 @@
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>168</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
@@ -3562,7 +3545,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -3577,14 +3560,12 @@
         <v>90</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -3621,16 +3602,16 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>97</v>
@@ -3642,7 +3623,7 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -3653,10 +3634,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3664,7 +3645,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>82</v>
@@ -3679,22 +3660,24 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>74</v>
@@ -3736,10 +3719,10 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>82</v>
@@ -3751,15 +3734,15 @@
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3770,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -3782,13 +3765,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3827,53 +3810,55 @@
         <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -3885,24 +3870,22 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>74</v>
@@ -3944,30 +3927,30 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3990,13 +3973,13 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4047,7 +4030,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4059,24 +4042,22 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4098,12 +4079,14 @@
         <v>90</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -4140,16 +4123,16 @@
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>97</v>
@@ -4161,21 +4144,21 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4183,7 +4166,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>82</v>
@@ -4198,22 +4181,24 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>74</v>
@@ -4255,10 +4240,10 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>82</v>
@@ -4270,26 +4255,26 @@
         <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -4301,17 +4286,15 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -4348,42 +4331,42 @@
         <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4406,16 +4389,16 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4423,7 +4406,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>74</v>
@@ -4465,7 +4448,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -4480,15 +4463,15 @@
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4499,7 +4482,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -4511,7 +4494,7 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>119</v>
@@ -4577,221 +4560,13 @@
         <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
